--- a/COVID/Fechas.xlsx
+++ b/COVID/Fechas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\COVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB7ADEC-13AF-4C19-AC38-54B3DB46E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A419CDB9-BD7C-48E3-ABCA-AB6FCC13B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="735">
   <si>
     <t>Fecha</t>
   </si>
@@ -1159,6 +1159,1086 @@
   </si>
   <si>
     <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>2020-01-04</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
+    <t>2020-01-09</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-01-11</t>
+  </si>
+  <si>
+    <t>2020-01-12</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>2020-01-22</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>2020-01-25</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
   </si>
 </sst>
 </file>
@@ -1517,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
-  <dimension ref="A1:E371"/>
+  <dimension ref="A1:E731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A712" workbookViewId="0">
+      <selection activeCell="C731" sqref="C731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:E96" si="1">+D3</f>
+        <f t="shared" ref="D4:E91" si="1">+D3</f>
         <v>12</v>
       </c>
       <c r="E4">
@@ -4781,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="E156">
-        <f t="shared" ref="D97:E202" si="159">+E155</f>
+        <f t="shared" ref="E156:E163" si="159">+E155</f>
         <v>2021</v>
       </c>
     </row>
@@ -6287,7 +7367,7 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <f t="shared" ref="D203:E266" si="237">+E227</f>
+        <f t="shared" ref="E228:E266" si="237">+E227</f>
         <v>2021</v>
       </c>
     </row>
@@ -7104,7 +8184,7 @@
         <v>9</v>
       </c>
       <c r="E267">
-        <f t="shared" ref="D267:E330" si="277">+E266</f>
+        <f t="shared" ref="E267:E330" si="277">+E266</f>
         <v>2021</v>
       </c>
     </row>
@@ -8444,7 +9524,7 @@
         <v>11</v>
       </c>
       <c r="E331">
-        <f t="shared" ref="D331:E371" si="342">+E330</f>
+        <f t="shared" ref="E331:E371" si="342">+E330</f>
         <v>2021</v>
       </c>
     </row>
@@ -8745,7 +9825,7 @@
         <v>349</v>
       </c>
       <c r="B346" t="str">
-        <f t="shared" ref="B346:B371" si="356">+D346&amp;"-"&amp;C346&amp;"-"&amp;E346</f>
+        <f t="shared" ref="B346:B409" si="356">+D346&amp;"-"&amp;C346&amp;"-"&amp;E346</f>
         <v>12-6-2021</v>
       </c>
       <c r="C346">
@@ -9284,6 +10364,7541 @@
       <c r="E371">
         <f t="shared" si="342"/>
         <v>2021</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372" t="str">
+        <f t="shared" si="356"/>
+        <v>1-1-2020</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" si="356"/>
+        <v>1-2-2020</v>
+      </c>
+      <c r="C373">
+        <f>+C372+1</f>
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <f t="shared" ref="D373:E388" si="383">+D372</f>
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="356"/>
+        <v>1-3-2020</v>
+      </c>
+      <c r="C374">
+        <f t="shared" ref="C374:C437" si="384">+C373+1</f>
+        <v>3</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="356"/>
+        <v>1-4-2020</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="384"/>
+        <v>4</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="356"/>
+        <v>1-5-2020</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="384"/>
+        <v>5</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="356"/>
+        <v>1-6-2020</v>
+      </c>
+      <c r="C377">
+        <f t="shared" si="384"/>
+        <v>6</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" si="356"/>
+        <v>1-7-2020</v>
+      </c>
+      <c r="C378">
+        <f t="shared" si="384"/>
+        <v>7</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="356"/>
+        <v>1-8-2020</v>
+      </c>
+      <c r="C379">
+        <f t="shared" si="384"/>
+        <v>8</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" si="356"/>
+        <v>1-9-2020</v>
+      </c>
+      <c r="C380">
+        <f t="shared" si="384"/>
+        <v>9</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381" t="str">
+        <f t="shared" si="356"/>
+        <v>1-10-2020</v>
+      </c>
+      <c r="C381">
+        <f t="shared" si="384"/>
+        <v>10</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382" t="str">
+        <f t="shared" si="356"/>
+        <v>1-11-2020</v>
+      </c>
+      <c r="C382">
+        <f t="shared" si="384"/>
+        <v>11</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B383" t="str">
+        <f t="shared" si="356"/>
+        <v>1-12-2020</v>
+      </c>
+      <c r="C383">
+        <f t="shared" si="384"/>
+        <v>12</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B384" t="str">
+        <f t="shared" si="356"/>
+        <v>1-13-2020</v>
+      </c>
+      <c r="C384">
+        <f t="shared" si="384"/>
+        <v>13</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B385" t="str">
+        <f t="shared" si="356"/>
+        <v>1-14-2020</v>
+      </c>
+      <c r="C385">
+        <f t="shared" si="384"/>
+        <v>14</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386" t="str">
+        <f t="shared" si="356"/>
+        <v>1-15-2020</v>
+      </c>
+      <c r="C386">
+        <f t="shared" si="384"/>
+        <v>15</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B387" t="str">
+        <f t="shared" si="356"/>
+        <v>1-16-2020</v>
+      </c>
+      <c r="C387">
+        <f t="shared" si="384"/>
+        <v>16</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388" t="str">
+        <f t="shared" si="356"/>
+        <v>1-17-2020</v>
+      </c>
+      <c r="C388">
+        <f t="shared" si="384"/>
+        <v>17</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <f t="shared" si="383"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389" t="str">
+        <f t="shared" si="356"/>
+        <v>1-18-2020</v>
+      </c>
+      <c r="C389">
+        <f t="shared" si="384"/>
+        <v>18</v>
+      </c>
+      <c r="D389">
+        <f t="shared" ref="D389:E404" si="385">+D388</f>
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390" t="str">
+        <f t="shared" si="356"/>
+        <v>1-19-2020</v>
+      </c>
+      <c r="C390">
+        <f t="shared" si="384"/>
+        <v>19</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391" t="str">
+        <f t="shared" si="356"/>
+        <v>1-20-2020</v>
+      </c>
+      <c r="C391">
+        <f t="shared" si="384"/>
+        <v>20</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392" t="str">
+        <f t="shared" si="356"/>
+        <v>1-21-2020</v>
+      </c>
+      <c r="C392">
+        <f t="shared" si="384"/>
+        <v>21</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="356"/>
+        <v>1-22-2020</v>
+      </c>
+      <c r="C393">
+        <f t="shared" si="384"/>
+        <v>22</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394" t="str">
+        <f t="shared" si="356"/>
+        <v>1-23-2020</v>
+      </c>
+      <c r="C394">
+        <f t="shared" si="384"/>
+        <v>23</v>
+      </c>
+      <c r="D394">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" si="356"/>
+        <v>1-24-2020</v>
+      </c>
+      <c r="C395">
+        <f t="shared" si="384"/>
+        <v>24</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B396" t="str">
+        <f t="shared" si="356"/>
+        <v>1-25-2020</v>
+      </c>
+      <c r="C396">
+        <f t="shared" si="384"/>
+        <v>25</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B397" t="str">
+        <f t="shared" si="356"/>
+        <v>1-26-2020</v>
+      </c>
+      <c r="C397">
+        <f t="shared" si="384"/>
+        <v>26</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B398" t="str">
+        <f t="shared" si="356"/>
+        <v>1-27-2020</v>
+      </c>
+      <c r="C398">
+        <f t="shared" si="384"/>
+        <v>27</v>
+      </c>
+      <c r="D398">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B399" t="str">
+        <f t="shared" si="356"/>
+        <v>1-28-2020</v>
+      </c>
+      <c r="C399">
+        <f t="shared" si="384"/>
+        <v>28</v>
+      </c>
+      <c r="D399">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400" t="str">
+        <f t="shared" si="356"/>
+        <v>1-29-2020</v>
+      </c>
+      <c r="C400">
+        <f t="shared" si="384"/>
+        <v>29</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B401" t="str">
+        <f t="shared" si="356"/>
+        <v>1-30-2020</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="384"/>
+        <v>30</v>
+      </c>
+      <c r="D401">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B402" t="str">
+        <f t="shared" si="356"/>
+        <v>1-31-2020</v>
+      </c>
+      <c r="C402">
+        <f t="shared" si="384"/>
+        <v>31</v>
+      </c>
+      <c r="D402">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403" t="str">
+        <f t="shared" si="356"/>
+        <v>2-1-2020</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404" t="str">
+        <f t="shared" si="356"/>
+        <v>2-2-2020</v>
+      </c>
+      <c r="C404">
+        <f t="shared" si="384"/>
+        <v>2</v>
+      </c>
+      <c r="D404">
+        <f t="shared" ref="D404:E419" si="386">+D403</f>
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <f t="shared" si="385"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B405" t="str">
+        <f t="shared" si="356"/>
+        <v>2-3-2020</v>
+      </c>
+      <c r="C405">
+        <f t="shared" si="384"/>
+        <v>3</v>
+      </c>
+      <c r="D405">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406" t="str">
+        <f t="shared" si="356"/>
+        <v>2-4-2020</v>
+      </c>
+      <c r="C406">
+        <f t="shared" si="384"/>
+        <v>4</v>
+      </c>
+      <c r="D406">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407" t="str">
+        <f t="shared" si="356"/>
+        <v>2-5-2020</v>
+      </c>
+      <c r="C407">
+        <f t="shared" si="384"/>
+        <v>5</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E407">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="356"/>
+        <v>2-6-2020</v>
+      </c>
+      <c r="C408">
+        <f t="shared" si="384"/>
+        <v>6</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B409" t="str">
+        <f t="shared" si="356"/>
+        <v>2-7-2020</v>
+      </c>
+      <c r="C409">
+        <f t="shared" si="384"/>
+        <v>7</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E409">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" ref="B410:B473" si="387">+D410&amp;"-"&amp;C410&amp;"-"&amp;E410</f>
+        <v>2-8-2020</v>
+      </c>
+      <c r="C410">
+        <f t="shared" si="384"/>
+        <v>8</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E410">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B411" t="str">
+        <f t="shared" si="387"/>
+        <v>2-9-2020</v>
+      </c>
+      <c r="C411">
+        <f t="shared" si="384"/>
+        <v>9</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B412" t="str">
+        <f t="shared" si="387"/>
+        <v>2-10-2020</v>
+      </c>
+      <c r="C412">
+        <f t="shared" si="384"/>
+        <v>10</v>
+      </c>
+      <c r="D412">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B413" t="str">
+        <f t="shared" si="387"/>
+        <v>2-11-2020</v>
+      </c>
+      <c r="C413">
+        <f t="shared" si="384"/>
+        <v>11</v>
+      </c>
+      <c r="D413">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B414" t="str">
+        <f t="shared" si="387"/>
+        <v>2-12-2020</v>
+      </c>
+      <c r="C414">
+        <f t="shared" si="384"/>
+        <v>12</v>
+      </c>
+      <c r="D414">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B415" t="str">
+        <f t="shared" si="387"/>
+        <v>2-13-2020</v>
+      </c>
+      <c r="C415">
+        <f t="shared" si="384"/>
+        <v>13</v>
+      </c>
+      <c r="D415">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B416" t="str">
+        <f t="shared" si="387"/>
+        <v>2-14-2020</v>
+      </c>
+      <c r="C416">
+        <f t="shared" si="384"/>
+        <v>14</v>
+      </c>
+      <c r="D416">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B417" t="str">
+        <f t="shared" si="387"/>
+        <v>2-15-2020</v>
+      </c>
+      <c r="C417">
+        <f t="shared" si="384"/>
+        <v>15</v>
+      </c>
+      <c r="D417">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B418" t="str">
+        <f t="shared" si="387"/>
+        <v>2-16-2020</v>
+      </c>
+      <c r="C418">
+        <f t="shared" si="384"/>
+        <v>16</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B419" t="str">
+        <f t="shared" si="387"/>
+        <v>2-17-2020</v>
+      </c>
+      <c r="C419">
+        <f t="shared" si="384"/>
+        <v>17</v>
+      </c>
+      <c r="D419">
+        <f t="shared" si="386"/>
+        <v>2</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="386"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B420" t="str">
+        <f t="shared" si="387"/>
+        <v>2-18-2020</v>
+      </c>
+      <c r="C420">
+        <f t="shared" si="384"/>
+        <v>18</v>
+      </c>
+      <c r="D420">
+        <f t="shared" ref="D420:E435" si="388">+D419</f>
+        <v>2</v>
+      </c>
+      <c r="E420">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B421" t="str">
+        <f t="shared" si="387"/>
+        <v>2-19-2020</v>
+      </c>
+      <c r="C421">
+        <f t="shared" si="384"/>
+        <v>19</v>
+      </c>
+      <c r="D421">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E421">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B422" t="str">
+        <f t="shared" si="387"/>
+        <v>2-20-2020</v>
+      </c>
+      <c r="C422">
+        <f t="shared" si="384"/>
+        <v>20</v>
+      </c>
+      <c r="D422">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B423" t="str">
+        <f t="shared" si="387"/>
+        <v>2-21-2020</v>
+      </c>
+      <c r="C423">
+        <f t="shared" si="384"/>
+        <v>21</v>
+      </c>
+      <c r="D423">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B424" t="str">
+        <f t="shared" si="387"/>
+        <v>2-22-2020</v>
+      </c>
+      <c r="C424">
+        <f t="shared" si="384"/>
+        <v>22</v>
+      </c>
+      <c r="D424">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E424">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B425" t="str">
+        <f t="shared" si="387"/>
+        <v>2-23-2020</v>
+      </c>
+      <c r="C425">
+        <f t="shared" si="384"/>
+        <v>23</v>
+      </c>
+      <c r="D425">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B426" t="str">
+        <f t="shared" si="387"/>
+        <v>2-24-2020</v>
+      </c>
+      <c r="C426">
+        <f t="shared" si="384"/>
+        <v>24</v>
+      </c>
+      <c r="D426">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B427" t="str">
+        <f t="shared" si="387"/>
+        <v>2-25-2020</v>
+      </c>
+      <c r="C427">
+        <f t="shared" si="384"/>
+        <v>25</v>
+      </c>
+      <c r="D427">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B428" t="str">
+        <f t="shared" si="387"/>
+        <v>2-26-2020</v>
+      </c>
+      <c r="C428">
+        <f t="shared" si="384"/>
+        <v>26</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B429" t="str">
+        <f t="shared" si="387"/>
+        <v>2-27-2020</v>
+      </c>
+      <c r="C429">
+        <f t="shared" si="384"/>
+        <v>27</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B430" t="str">
+        <f t="shared" si="387"/>
+        <v>2-28-2020</v>
+      </c>
+      <c r="C430">
+        <f t="shared" si="384"/>
+        <v>28</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B431" t="str">
+        <f t="shared" si="387"/>
+        <v>3-1-2020</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>3</v>
+      </c>
+      <c r="E431">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B432" t="str">
+        <f t="shared" si="387"/>
+        <v>3-2-2020</v>
+      </c>
+      <c r="C432">
+        <f t="shared" si="384"/>
+        <v>2</v>
+      </c>
+      <c r="D432">
+        <f t="shared" ref="D432:E447" si="389">+D431</f>
+        <v>3</v>
+      </c>
+      <c r="E432">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B433" t="str">
+        <f t="shared" si="387"/>
+        <v>3-3-2020</v>
+      </c>
+      <c r="C433">
+        <f t="shared" si="384"/>
+        <v>3</v>
+      </c>
+      <c r="D433">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E433">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B434" t="str">
+        <f t="shared" si="387"/>
+        <v>3-4-2020</v>
+      </c>
+      <c r="C434">
+        <f t="shared" si="384"/>
+        <v>4</v>
+      </c>
+      <c r="D434">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E434">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B435" t="str">
+        <f t="shared" si="387"/>
+        <v>3-5-2020</v>
+      </c>
+      <c r="C435">
+        <f t="shared" si="384"/>
+        <v>5</v>
+      </c>
+      <c r="D435">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E435">
+        <f t="shared" si="388"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B436" t="str">
+        <f t="shared" si="387"/>
+        <v>3-6-2020</v>
+      </c>
+      <c r="C436">
+        <f t="shared" si="384"/>
+        <v>6</v>
+      </c>
+      <c r="D436">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E436">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B437" t="str">
+        <f t="shared" si="387"/>
+        <v>3-7-2020</v>
+      </c>
+      <c r="C437">
+        <f t="shared" si="384"/>
+        <v>7</v>
+      </c>
+      <c r="D437">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E437">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B438" t="str">
+        <f t="shared" si="387"/>
+        <v>3-8-2020</v>
+      </c>
+      <c r="C438">
+        <f t="shared" ref="C438:C501" si="390">+C437+1</f>
+        <v>8</v>
+      </c>
+      <c r="D438">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E438">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B439" t="str">
+        <f t="shared" si="387"/>
+        <v>3-9-2020</v>
+      </c>
+      <c r="C439">
+        <f t="shared" si="390"/>
+        <v>9</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E439">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B440" t="str">
+        <f t="shared" si="387"/>
+        <v>3-10-2020</v>
+      </c>
+      <c r="C440">
+        <f t="shared" si="390"/>
+        <v>10</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E440">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B441" t="str">
+        <f t="shared" si="387"/>
+        <v>3-11-2020</v>
+      </c>
+      <c r="C441">
+        <f t="shared" si="390"/>
+        <v>11</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E441">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B442" t="str">
+        <f t="shared" si="387"/>
+        <v>3-12-2020</v>
+      </c>
+      <c r="C442">
+        <f t="shared" si="390"/>
+        <v>12</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E442">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B443" t="str">
+        <f t="shared" si="387"/>
+        <v>3-13-2020</v>
+      </c>
+      <c r="C443">
+        <f t="shared" si="390"/>
+        <v>13</v>
+      </c>
+      <c r="D443">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E443">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B444" t="str">
+        <f t="shared" si="387"/>
+        <v>3-14-2020</v>
+      </c>
+      <c r="C444">
+        <f t="shared" si="390"/>
+        <v>14</v>
+      </c>
+      <c r="D444">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E444">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B445" t="str">
+        <f t="shared" si="387"/>
+        <v>3-15-2020</v>
+      </c>
+      <c r="C445">
+        <f t="shared" si="390"/>
+        <v>15</v>
+      </c>
+      <c r="D445">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E445">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B446" t="str">
+        <f t="shared" si="387"/>
+        <v>3-16-2020</v>
+      </c>
+      <c r="C446">
+        <f t="shared" si="390"/>
+        <v>16</v>
+      </c>
+      <c r="D446">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E446">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B447" t="str">
+        <f t="shared" si="387"/>
+        <v>3-17-2020</v>
+      </c>
+      <c r="C447">
+        <f t="shared" si="390"/>
+        <v>17</v>
+      </c>
+      <c r="D447">
+        <f t="shared" si="389"/>
+        <v>3</v>
+      </c>
+      <c r="E447">
+        <f t="shared" si="389"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B448" t="str">
+        <f t="shared" si="387"/>
+        <v>3-18-2020</v>
+      </c>
+      <c r="C448">
+        <f t="shared" si="390"/>
+        <v>18</v>
+      </c>
+      <c r="D448">
+        <f t="shared" ref="D448:E463" si="391">+D447</f>
+        <v>3</v>
+      </c>
+      <c r="E448">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B449" t="str">
+        <f t="shared" si="387"/>
+        <v>3-19-2020</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="390"/>
+        <v>19</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E449">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B450" t="str">
+        <f t="shared" si="387"/>
+        <v>3-20-2020</v>
+      </c>
+      <c r="C450">
+        <f t="shared" si="390"/>
+        <v>20</v>
+      </c>
+      <c r="D450">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E450">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B451" t="str">
+        <f t="shared" si="387"/>
+        <v>3-21-2020</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="390"/>
+        <v>21</v>
+      </c>
+      <c r="D451">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E451">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B452" t="str">
+        <f t="shared" si="387"/>
+        <v>3-22-2020</v>
+      </c>
+      <c r="C452">
+        <f t="shared" si="390"/>
+        <v>22</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E452">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B453" t="str">
+        <f t="shared" si="387"/>
+        <v>3-23-2020</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="390"/>
+        <v>23</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E453">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B454" t="str">
+        <f t="shared" si="387"/>
+        <v>3-24-2020</v>
+      </c>
+      <c r="C454">
+        <f t="shared" si="390"/>
+        <v>24</v>
+      </c>
+      <c r="D454">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E454">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B455" t="str">
+        <f t="shared" si="387"/>
+        <v>3-25-2020</v>
+      </c>
+      <c r="C455">
+        <f t="shared" si="390"/>
+        <v>25</v>
+      </c>
+      <c r="D455">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E455">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B456" t="str">
+        <f t="shared" si="387"/>
+        <v>3-26-2020</v>
+      </c>
+      <c r="C456">
+        <f t="shared" si="390"/>
+        <v>26</v>
+      </c>
+      <c r="D456">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E456">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B457" t="str">
+        <f t="shared" si="387"/>
+        <v>3-27-2020</v>
+      </c>
+      <c r="C457">
+        <f t="shared" si="390"/>
+        <v>27</v>
+      </c>
+      <c r="D457">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E457">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B458" t="str">
+        <f t="shared" si="387"/>
+        <v>3-28-2020</v>
+      </c>
+      <c r="C458">
+        <f t="shared" si="390"/>
+        <v>28</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E458">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B459" t="str">
+        <f t="shared" si="387"/>
+        <v>3-29-2020</v>
+      </c>
+      <c r="C459">
+        <f t="shared" si="390"/>
+        <v>29</v>
+      </c>
+      <c r="D459">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E459">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B460" t="str">
+        <f t="shared" si="387"/>
+        <v>3-30-2020</v>
+      </c>
+      <c r="C460">
+        <f t="shared" si="390"/>
+        <v>30</v>
+      </c>
+      <c r="D460">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E460">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B461" t="str">
+        <f t="shared" si="387"/>
+        <v>3-31-2020</v>
+      </c>
+      <c r="C461">
+        <f t="shared" si="390"/>
+        <v>31</v>
+      </c>
+      <c r="D461">
+        <f t="shared" si="391"/>
+        <v>3</v>
+      </c>
+      <c r="E461">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B462" t="str">
+        <f t="shared" si="387"/>
+        <v>4-1-2020</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>4</v>
+      </c>
+      <c r="E462">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B463" t="str">
+        <f t="shared" si="387"/>
+        <v>4-2-2020</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="390"/>
+        <v>2</v>
+      </c>
+      <c r="D463">
+        <f t="shared" ref="D463:E478" si="392">+D462</f>
+        <v>4</v>
+      </c>
+      <c r="E463">
+        <f t="shared" si="391"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B464" t="str">
+        <f t="shared" si="387"/>
+        <v>4-3-2020</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="390"/>
+        <v>3</v>
+      </c>
+      <c r="D464">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E464">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B465" t="str">
+        <f t="shared" si="387"/>
+        <v>4-4-2020</v>
+      </c>
+      <c r="C465">
+        <f t="shared" si="390"/>
+        <v>4</v>
+      </c>
+      <c r="D465">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E465">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B466" t="str">
+        <f t="shared" si="387"/>
+        <v>4-5-2020</v>
+      </c>
+      <c r="C466">
+        <f t="shared" si="390"/>
+        <v>5</v>
+      </c>
+      <c r="D466">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E466">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B467" t="str">
+        <f t="shared" si="387"/>
+        <v>4-6-2020</v>
+      </c>
+      <c r="C467">
+        <f t="shared" si="390"/>
+        <v>6</v>
+      </c>
+      <c r="D467">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E467">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B468" t="str">
+        <f t="shared" si="387"/>
+        <v>4-7-2020</v>
+      </c>
+      <c r="C468">
+        <f t="shared" si="390"/>
+        <v>7</v>
+      </c>
+      <c r="D468">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E468">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B469" t="str">
+        <f t="shared" si="387"/>
+        <v>4-8-2020</v>
+      </c>
+      <c r="C469">
+        <f t="shared" si="390"/>
+        <v>8</v>
+      </c>
+      <c r="D469">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E469">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B470" t="str">
+        <f t="shared" si="387"/>
+        <v>4-9-2020</v>
+      </c>
+      <c r="C470">
+        <f t="shared" si="390"/>
+        <v>9</v>
+      </c>
+      <c r="D470">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E470">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B471" t="str">
+        <f t="shared" si="387"/>
+        <v>4-10-2020</v>
+      </c>
+      <c r="C471">
+        <f t="shared" si="390"/>
+        <v>10</v>
+      </c>
+      <c r="D471">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E471">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B472" t="str">
+        <f t="shared" si="387"/>
+        <v>4-11-2020</v>
+      </c>
+      <c r="C472">
+        <f t="shared" si="390"/>
+        <v>11</v>
+      </c>
+      <c r="D472">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E472">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B473" t="str">
+        <f t="shared" si="387"/>
+        <v>4-12-2020</v>
+      </c>
+      <c r="C473">
+        <f t="shared" si="390"/>
+        <v>12</v>
+      </c>
+      <c r="D473">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E473">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B474" t="str">
+        <f t="shared" ref="B474:B537" si="393">+D474&amp;"-"&amp;C474&amp;"-"&amp;E474</f>
+        <v>4-13-2020</v>
+      </c>
+      <c r="C474">
+        <f t="shared" si="390"/>
+        <v>13</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E474">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B475" t="str">
+        <f t="shared" si="393"/>
+        <v>4-14-2020</v>
+      </c>
+      <c r="C475">
+        <f t="shared" si="390"/>
+        <v>14</v>
+      </c>
+      <c r="D475">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E475">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B476" t="str">
+        <f t="shared" si="393"/>
+        <v>4-15-2020</v>
+      </c>
+      <c r="C476">
+        <f t="shared" si="390"/>
+        <v>15</v>
+      </c>
+      <c r="D476">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E476">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B477" t="str">
+        <f t="shared" si="393"/>
+        <v>4-16-2020</v>
+      </c>
+      <c r="C477">
+        <f t="shared" si="390"/>
+        <v>16</v>
+      </c>
+      <c r="D477">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E477">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B478" t="str">
+        <f t="shared" si="393"/>
+        <v>4-17-2020</v>
+      </c>
+      <c r="C478">
+        <f t="shared" si="390"/>
+        <v>17</v>
+      </c>
+      <c r="D478">
+        <f t="shared" si="392"/>
+        <v>4</v>
+      </c>
+      <c r="E478">
+        <f t="shared" si="392"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B479" t="str">
+        <f t="shared" si="393"/>
+        <v>4-18-2020</v>
+      </c>
+      <c r="C479">
+        <f t="shared" si="390"/>
+        <v>18</v>
+      </c>
+      <c r="D479">
+        <f t="shared" ref="D479:E494" si="394">+D478</f>
+        <v>4</v>
+      </c>
+      <c r="E479">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B480" t="str">
+        <f t="shared" si="393"/>
+        <v>4-19-2020</v>
+      </c>
+      <c r="C480">
+        <f t="shared" si="390"/>
+        <v>19</v>
+      </c>
+      <c r="D480">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E480">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B481" t="str">
+        <f t="shared" si="393"/>
+        <v>4-20-2020</v>
+      </c>
+      <c r="C481">
+        <f t="shared" si="390"/>
+        <v>20</v>
+      </c>
+      <c r="D481">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E481">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B482" t="str">
+        <f t="shared" si="393"/>
+        <v>4-21-2020</v>
+      </c>
+      <c r="C482">
+        <f t="shared" si="390"/>
+        <v>21</v>
+      </c>
+      <c r="D482">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E482">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B483" t="str">
+        <f t="shared" si="393"/>
+        <v>4-22-2020</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="390"/>
+        <v>22</v>
+      </c>
+      <c r="D483">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E483">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B484" t="str">
+        <f t="shared" si="393"/>
+        <v>4-23-2020</v>
+      </c>
+      <c r="C484">
+        <f t="shared" si="390"/>
+        <v>23</v>
+      </c>
+      <c r="D484">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E484">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B485" t="str">
+        <f t="shared" si="393"/>
+        <v>4-24-2020</v>
+      </c>
+      <c r="C485">
+        <f t="shared" si="390"/>
+        <v>24</v>
+      </c>
+      <c r="D485">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E485">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B486" t="str">
+        <f t="shared" si="393"/>
+        <v>4-25-2020</v>
+      </c>
+      <c r="C486">
+        <f t="shared" si="390"/>
+        <v>25</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E486">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B487" t="str">
+        <f t="shared" si="393"/>
+        <v>4-26-2020</v>
+      </c>
+      <c r="C487">
+        <f t="shared" si="390"/>
+        <v>26</v>
+      </c>
+      <c r="D487">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E487">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B488" t="str">
+        <f t="shared" si="393"/>
+        <v>4-27-2020</v>
+      </c>
+      <c r="C488">
+        <f t="shared" si="390"/>
+        <v>27</v>
+      </c>
+      <c r="D488">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E488">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B489" t="str">
+        <f t="shared" si="393"/>
+        <v>4-28-2020</v>
+      </c>
+      <c r="C489">
+        <f t="shared" si="390"/>
+        <v>28</v>
+      </c>
+      <c r="D489">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E489">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B490" t="str">
+        <f t="shared" si="393"/>
+        <v>4-29-2020</v>
+      </c>
+      <c r="C490">
+        <f t="shared" si="390"/>
+        <v>29</v>
+      </c>
+      <c r="D490">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E490">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B491" t="str">
+        <f t="shared" si="393"/>
+        <v>4-30-2020</v>
+      </c>
+      <c r="C491">
+        <f t="shared" si="390"/>
+        <v>30</v>
+      </c>
+      <c r="D491">
+        <f t="shared" si="394"/>
+        <v>4</v>
+      </c>
+      <c r="E491">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B492" t="str">
+        <f t="shared" si="393"/>
+        <v>5-1-2020</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>5</v>
+      </c>
+      <c r="E492">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B493" t="str">
+        <f t="shared" si="393"/>
+        <v>5-2-2020</v>
+      </c>
+      <c r="C493">
+        <f t="shared" si="390"/>
+        <v>2</v>
+      </c>
+      <c r="D493">
+        <f t="shared" ref="D493:E508" si="395">+D492</f>
+        <v>5</v>
+      </c>
+      <c r="E493">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B494" t="str">
+        <f t="shared" si="393"/>
+        <v>5-3-2020</v>
+      </c>
+      <c r="C494">
+        <f t="shared" si="390"/>
+        <v>3</v>
+      </c>
+      <c r="D494">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E494">
+        <f t="shared" si="394"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B495" t="str">
+        <f t="shared" si="393"/>
+        <v>5-4-2020</v>
+      </c>
+      <c r="C495">
+        <f t="shared" si="390"/>
+        <v>4</v>
+      </c>
+      <c r="D495">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E495">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B496" t="str">
+        <f t="shared" si="393"/>
+        <v>5-5-2020</v>
+      </c>
+      <c r="C496">
+        <f t="shared" si="390"/>
+        <v>5</v>
+      </c>
+      <c r="D496">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E496">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B497" t="str">
+        <f t="shared" si="393"/>
+        <v>5-6-2020</v>
+      </c>
+      <c r="C497">
+        <f t="shared" si="390"/>
+        <v>6</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E497">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B498" t="str">
+        <f t="shared" si="393"/>
+        <v>5-7-2020</v>
+      </c>
+      <c r="C498">
+        <f t="shared" si="390"/>
+        <v>7</v>
+      </c>
+      <c r="D498">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E498">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B499" t="str">
+        <f t="shared" si="393"/>
+        <v>5-8-2020</v>
+      </c>
+      <c r="C499">
+        <f t="shared" si="390"/>
+        <v>8</v>
+      </c>
+      <c r="D499">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E499">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B500" t="str">
+        <f t="shared" si="393"/>
+        <v>5-9-2020</v>
+      </c>
+      <c r="C500">
+        <f t="shared" si="390"/>
+        <v>9</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E500">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B501" t="str">
+        <f t="shared" si="393"/>
+        <v>5-10-2020</v>
+      </c>
+      <c r="C501">
+        <f t="shared" si="390"/>
+        <v>10</v>
+      </c>
+      <c r="D501">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E501">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B502" t="str">
+        <f t="shared" si="393"/>
+        <v>5-11-2020</v>
+      </c>
+      <c r="C502">
+        <f t="shared" ref="C502:C565" si="396">+C501+1</f>
+        <v>11</v>
+      </c>
+      <c r="D502">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E502">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B503" t="str">
+        <f t="shared" si="393"/>
+        <v>5-12-2020</v>
+      </c>
+      <c r="C503">
+        <f t="shared" si="396"/>
+        <v>12</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E503">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B504" t="str">
+        <f t="shared" si="393"/>
+        <v>5-13-2020</v>
+      </c>
+      <c r="C504">
+        <f t="shared" si="396"/>
+        <v>13</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E504">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B505" t="str">
+        <f t="shared" si="393"/>
+        <v>5-14-2020</v>
+      </c>
+      <c r="C505">
+        <f t="shared" si="396"/>
+        <v>14</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E505">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B506" t="str">
+        <f t="shared" si="393"/>
+        <v>5-15-2020</v>
+      </c>
+      <c r="C506">
+        <f t="shared" si="396"/>
+        <v>15</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E506">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B507" t="str">
+        <f t="shared" si="393"/>
+        <v>5-16-2020</v>
+      </c>
+      <c r="C507">
+        <f t="shared" si="396"/>
+        <v>16</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E507">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B508" t="str">
+        <f t="shared" si="393"/>
+        <v>5-17-2020</v>
+      </c>
+      <c r="C508">
+        <f t="shared" si="396"/>
+        <v>17</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="E508">
+        <f t="shared" si="395"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B509" t="str">
+        <f t="shared" si="393"/>
+        <v>5-18-2020</v>
+      </c>
+      <c r="C509">
+        <f t="shared" si="396"/>
+        <v>18</v>
+      </c>
+      <c r="D509">
+        <f t="shared" ref="D509:E524" si="397">+D508</f>
+        <v>5</v>
+      </c>
+      <c r="E509">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B510" t="str">
+        <f t="shared" si="393"/>
+        <v>5-19-2020</v>
+      </c>
+      <c r="C510">
+        <f t="shared" si="396"/>
+        <v>19</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E510">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B511" t="str">
+        <f t="shared" si="393"/>
+        <v>5-20-2020</v>
+      </c>
+      <c r="C511">
+        <f t="shared" si="396"/>
+        <v>20</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E511">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B512" t="str">
+        <f t="shared" si="393"/>
+        <v>5-21-2020</v>
+      </c>
+      <c r="C512">
+        <f t="shared" si="396"/>
+        <v>21</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E512">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B513" t="str">
+        <f t="shared" si="393"/>
+        <v>5-22-2020</v>
+      </c>
+      <c r="C513">
+        <f t="shared" si="396"/>
+        <v>22</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E513">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B514" t="str">
+        <f t="shared" si="393"/>
+        <v>5-23-2020</v>
+      </c>
+      <c r="C514">
+        <f t="shared" si="396"/>
+        <v>23</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E514">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B515" t="str">
+        <f t="shared" si="393"/>
+        <v>5-24-2020</v>
+      </c>
+      <c r="C515">
+        <f t="shared" si="396"/>
+        <v>24</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E515">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B516" t="str">
+        <f t="shared" si="393"/>
+        <v>5-25-2020</v>
+      </c>
+      <c r="C516">
+        <f t="shared" si="396"/>
+        <v>25</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E516">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B517" t="str">
+        <f t="shared" si="393"/>
+        <v>5-26-2020</v>
+      </c>
+      <c r="C517">
+        <f t="shared" si="396"/>
+        <v>26</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E517">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B518" t="str">
+        <f t="shared" si="393"/>
+        <v>5-27-2020</v>
+      </c>
+      <c r="C518">
+        <f t="shared" si="396"/>
+        <v>27</v>
+      </c>
+      <c r="D518">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E518">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B519" t="str">
+        <f t="shared" si="393"/>
+        <v>5-28-2020</v>
+      </c>
+      <c r="C519">
+        <f t="shared" si="396"/>
+        <v>28</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E519">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B520" t="str">
+        <f t="shared" si="393"/>
+        <v>5-29-2020</v>
+      </c>
+      <c r="C520">
+        <f t="shared" si="396"/>
+        <v>29</v>
+      </c>
+      <c r="D520">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E520">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B521" t="str">
+        <f t="shared" si="393"/>
+        <v>5-30-2020</v>
+      </c>
+      <c r="C521">
+        <f t="shared" si="396"/>
+        <v>30</v>
+      </c>
+      <c r="D521">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E521">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B522" t="str">
+        <f t="shared" si="393"/>
+        <v>5-31-2020</v>
+      </c>
+      <c r="C522">
+        <f t="shared" si="396"/>
+        <v>31</v>
+      </c>
+      <c r="D522">
+        <f t="shared" si="397"/>
+        <v>5</v>
+      </c>
+      <c r="E522">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B523" t="str">
+        <f t="shared" si="393"/>
+        <v>6-1-2020</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>6</v>
+      </c>
+      <c r="E523">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B524" t="str">
+        <f t="shared" si="393"/>
+        <v>6-2-2020</v>
+      </c>
+      <c r="C524">
+        <f t="shared" si="396"/>
+        <v>2</v>
+      </c>
+      <c r="D524">
+        <f t="shared" ref="D524:E539" si="398">+D523</f>
+        <v>6</v>
+      </c>
+      <c r="E524">
+        <f t="shared" si="397"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B525" t="str">
+        <f t="shared" si="393"/>
+        <v>6-3-2020</v>
+      </c>
+      <c r="C525">
+        <f t="shared" si="396"/>
+        <v>3</v>
+      </c>
+      <c r="D525">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E525">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B526" t="str">
+        <f t="shared" si="393"/>
+        <v>6-4-2020</v>
+      </c>
+      <c r="C526">
+        <f t="shared" si="396"/>
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E526">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B527" t="str">
+        <f t="shared" si="393"/>
+        <v>6-5-2020</v>
+      </c>
+      <c r="C527">
+        <f t="shared" si="396"/>
+        <v>5</v>
+      </c>
+      <c r="D527">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E527">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B528" t="str">
+        <f t="shared" si="393"/>
+        <v>6-6-2020</v>
+      </c>
+      <c r="C528">
+        <f t="shared" si="396"/>
+        <v>6</v>
+      </c>
+      <c r="D528">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E528">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B529" t="str">
+        <f t="shared" si="393"/>
+        <v>6-7-2020</v>
+      </c>
+      <c r="C529">
+        <f t="shared" si="396"/>
+        <v>7</v>
+      </c>
+      <c r="D529">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E529">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B530" t="str">
+        <f t="shared" si="393"/>
+        <v>6-8-2020</v>
+      </c>
+      <c r="C530">
+        <f t="shared" si="396"/>
+        <v>8</v>
+      </c>
+      <c r="D530">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E530">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B531" t="str">
+        <f t="shared" si="393"/>
+        <v>6-9-2020</v>
+      </c>
+      <c r="C531">
+        <f t="shared" si="396"/>
+        <v>9</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E531">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B532" t="str">
+        <f t="shared" si="393"/>
+        <v>6-10-2020</v>
+      </c>
+      <c r="C532">
+        <f t="shared" si="396"/>
+        <v>10</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E532">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B533" t="str">
+        <f t="shared" si="393"/>
+        <v>6-11-2020</v>
+      </c>
+      <c r="C533">
+        <f t="shared" si="396"/>
+        <v>11</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E533">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B534" t="str">
+        <f t="shared" si="393"/>
+        <v>6-12-2020</v>
+      </c>
+      <c r="C534">
+        <f t="shared" si="396"/>
+        <v>12</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E534">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B535" t="str">
+        <f t="shared" si="393"/>
+        <v>6-13-2020</v>
+      </c>
+      <c r="C535">
+        <f t="shared" si="396"/>
+        <v>13</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E535">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B536" t="str">
+        <f t="shared" si="393"/>
+        <v>6-14-2020</v>
+      </c>
+      <c r="C536">
+        <f t="shared" si="396"/>
+        <v>14</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E536">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B537" t="str">
+        <f t="shared" si="393"/>
+        <v>6-15-2020</v>
+      </c>
+      <c r="C537">
+        <f t="shared" si="396"/>
+        <v>15</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E537">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B538" t="str">
+        <f t="shared" ref="B538:B601" si="399">+D538&amp;"-"&amp;C538&amp;"-"&amp;E538</f>
+        <v>6-16-2020</v>
+      </c>
+      <c r="C538">
+        <f t="shared" si="396"/>
+        <v>16</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E538">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B539" t="str">
+        <f t="shared" si="399"/>
+        <v>6-17-2020</v>
+      </c>
+      <c r="C539">
+        <f t="shared" si="396"/>
+        <v>17</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="E539">
+        <f t="shared" si="398"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B540" t="str">
+        <f t="shared" si="399"/>
+        <v>6-18-2020</v>
+      </c>
+      <c r="C540">
+        <f t="shared" si="396"/>
+        <v>18</v>
+      </c>
+      <c r="D540">
+        <f t="shared" ref="D540:E555" si="400">+D539</f>
+        <v>6</v>
+      </c>
+      <c r="E540">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B541" t="str">
+        <f t="shared" si="399"/>
+        <v>6-19-2020</v>
+      </c>
+      <c r="C541">
+        <f t="shared" si="396"/>
+        <v>19</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E541">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B542" t="str">
+        <f t="shared" si="399"/>
+        <v>6-20-2020</v>
+      </c>
+      <c r="C542">
+        <f t="shared" si="396"/>
+        <v>20</v>
+      </c>
+      <c r="D542">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E542">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B543" t="str">
+        <f t="shared" si="399"/>
+        <v>6-21-2020</v>
+      </c>
+      <c r="C543">
+        <f t="shared" si="396"/>
+        <v>21</v>
+      </c>
+      <c r="D543">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E543">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B544" t="str">
+        <f t="shared" si="399"/>
+        <v>6-22-2020</v>
+      </c>
+      <c r="C544">
+        <f t="shared" si="396"/>
+        <v>22</v>
+      </c>
+      <c r="D544">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E544">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B545" t="str">
+        <f t="shared" si="399"/>
+        <v>6-23-2020</v>
+      </c>
+      <c r="C545">
+        <f t="shared" si="396"/>
+        <v>23</v>
+      </c>
+      <c r="D545">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E545">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B546" t="str">
+        <f t="shared" si="399"/>
+        <v>6-24-2020</v>
+      </c>
+      <c r="C546">
+        <f t="shared" si="396"/>
+        <v>24</v>
+      </c>
+      <c r="D546">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E546">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B547" t="str">
+        <f t="shared" si="399"/>
+        <v>6-25-2020</v>
+      </c>
+      <c r="C547">
+        <f t="shared" si="396"/>
+        <v>25</v>
+      </c>
+      <c r="D547">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E547">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B548" t="str">
+        <f t="shared" si="399"/>
+        <v>6-26-2020</v>
+      </c>
+      <c r="C548">
+        <f t="shared" si="396"/>
+        <v>26</v>
+      </c>
+      <c r="D548">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E548">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B549" t="str">
+        <f t="shared" si="399"/>
+        <v>6-27-2020</v>
+      </c>
+      <c r="C549">
+        <f t="shared" si="396"/>
+        <v>27</v>
+      </c>
+      <c r="D549">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E549">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B550" t="str">
+        <f t="shared" si="399"/>
+        <v>6-28-2020</v>
+      </c>
+      <c r="C550">
+        <f t="shared" si="396"/>
+        <v>28</v>
+      </c>
+      <c r="D550">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E550">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B551" t="str">
+        <f t="shared" si="399"/>
+        <v>6-29-2020</v>
+      </c>
+      <c r="C551">
+        <f t="shared" si="396"/>
+        <v>29</v>
+      </c>
+      <c r="D551">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E551">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B552" t="str">
+        <f t="shared" si="399"/>
+        <v>6-30-2020</v>
+      </c>
+      <c r="C552">
+        <f t="shared" si="396"/>
+        <v>30</v>
+      </c>
+      <c r="D552">
+        <f t="shared" si="400"/>
+        <v>6</v>
+      </c>
+      <c r="E552">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B553" t="str">
+        <f t="shared" si="399"/>
+        <v>7-1-2020</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>7</v>
+      </c>
+      <c r="E553">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B554" t="str">
+        <f t="shared" si="399"/>
+        <v>7-2-2020</v>
+      </c>
+      <c r="C554">
+        <f t="shared" si="396"/>
+        <v>2</v>
+      </c>
+      <c r="D554">
+        <f t="shared" ref="D554:E569" si="401">+D553</f>
+        <v>7</v>
+      </c>
+      <c r="E554">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B555" t="str">
+        <f t="shared" si="399"/>
+        <v>7-3-2020</v>
+      </c>
+      <c r="C555">
+        <f t="shared" si="396"/>
+        <v>3</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E555">
+        <f t="shared" si="400"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B556" t="str">
+        <f t="shared" si="399"/>
+        <v>7-4-2020</v>
+      </c>
+      <c r="C556">
+        <f t="shared" si="396"/>
+        <v>4</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E556">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B557" t="str">
+        <f t="shared" si="399"/>
+        <v>7-5-2020</v>
+      </c>
+      <c r="C557">
+        <f t="shared" si="396"/>
+        <v>5</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E557">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B558" t="str">
+        <f t="shared" si="399"/>
+        <v>7-6-2020</v>
+      </c>
+      <c r="C558">
+        <f t="shared" si="396"/>
+        <v>6</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E558">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B559" t="str">
+        <f t="shared" si="399"/>
+        <v>7-7-2020</v>
+      </c>
+      <c r="C559">
+        <f t="shared" si="396"/>
+        <v>7</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E559">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B560" t="str">
+        <f t="shared" si="399"/>
+        <v>7-8-2020</v>
+      </c>
+      <c r="C560">
+        <f t="shared" si="396"/>
+        <v>8</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E560">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B561" t="str">
+        <f t="shared" si="399"/>
+        <v>7-9-2020</v>
+      </c>
+      <c r="C561">
+        <f t="shared" si="396"/>
+        <v>9</v>
+      </c>
+      <c r="D561">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E561">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B562" t="str">
+        <f t="shared" si="399"/>
+        <v>7-10-2020</v>
+      </c>
+      <c r="C562">
+        <f t="shared" si="396"/>
+        <v>10</v>
+      </c>
+      <c r="D562">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E562">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B563" t="str">
+        <f t="shared" si="399"/>
+        <v>7-11-2020</v>
+      </c>
+      <c r="C563">
+        <f t="shared" si="396"/>
+        <v>11</v>
+      </c>
+      <c r="D563">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E563">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B564" t="str">
+        <f t="shared" si="399"/>
+        <v>7-12-2020</v>
+      </c>
+      <c r="C564">
+        <f t="shared" si="396"/>
+        <v>12</v>
+      </c>
+      <c r="D564">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E564">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B565" t="str">
+        <f t="shared" si="399"/>
+        <v>7-13-2020</v>
+      </c>
+      <c r="C565">
+        <f t="shared" si="396"/>
+        <v>13</v>
+      </c>
+      <c r="D565">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E565">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B566" t="str">
+        <f t="shared" si="399"/>
+        <v>7-14-2020</v>
+      </c>
+      <c r="C566">
+        <f t="shared" ref="C566:C629" si="402">+C565+1</f>
+        <v>14</v>
+      </c>
+      <c r="D566">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E566">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B567" t="str">
+        <f t="shared" si="399"/>
+        <v>7-15-2020</v>
+      </c>
+      <c r="C567">
+        <f t="shared" si="402"/>
+        <v>15</v>
+      </c>
+      <c r="D567">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E567">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B568" t="str">
+        <f t="shared" si="399"/>
+        <v>7-16-2020</v>
+      </c>
+      <c r="C568">
+        <f t="shared" si="402"/>
+        <v>16</v>
+      </c>
+      <c r="D568">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E568">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B569" t="str">
+        <f t="shared" si="399"/>
+        <v>7-17-2020</v>
+      </c>
+      <c r="C569">
+        <f t="shared" si="402"/>
+        <v>17</v>
+      </c>
+      <c r="D569">
+        <f t="shared" si="401"/>
+        <v>7</v>
+      </c>
+      <c r="E569">
+        <f t="shared" si="401"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B570" t="str">
+        <f t="shared" si="399"/>
+        <v>7-18-2020</v>
+      </c>
+      <c r="C570">
+        <f t="shared" si="402"/>
+        <v>18</v>
+      </c>
+      <c r="D570">
+        <f t="shared" ref="D570:E585" si="403">+D569</f>
+        <v>7</v>
+      </c>
+      <c r="E570">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B571" t="str">
+        <f t="shared" si="399"/>
+        <v>7-19-2020</v>
+      </c>
+      <c r="C571">
+        <f t="shared" si="402"/>
+        <v>19</v>
+      </c>
+      <c r="D571">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E571">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B572" t="str">
+        <f t="shared" si="399"/>
+        <v>7-20-2020</v>
+      </c>
+      <c r="C572">
+        <f t="shared" si="402"/>
+        <v>20</v>
+      </c>
+      <c r="D572">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E572">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B573" t="str">
+        <f t="shared" si="399"/>
+        <v>7-21-2020</v>
+      </c>
+      <c r="C573">
+        <f t="shared" si="402"/>
+        <v>21</v>
+      </c>
+      <c r="D573">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E573">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B574" t="str">
+        <f t="shared" si="399"/>
+        <v>7-22-2020</v>
+      </c>
+      <c r="C574">
+        <f t="shared" si="402"/>
+        <v>22</v>
+      </c>
+      <c r="D574">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E574">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B575" t="str">
+        <f t="shared" si="399"/>
+        <v>7-23-2020</v>
+      </c>
+      <c r="C575">
+        <f t="shared" si="402"/>
+        <v>23</v>
+      </c>
+      <c r="D575">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E575">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B576" t="str">
+        <f t="shared" si="399"/>
+        <v>7-24-2020</v>
+      </c>
+      <c r="C576">
+        <f t="shared" si="402"/>
+        <v>24</v>
+      </c>
+      <c r="D576">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E576">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B577" t="str">
+        <f t="shared" si="399"/>
+        <v>7-25-2020</v>
+      </c>
+      <c r="C577">
+        <f t="shared" si="402"/>
+        <v>25</v>
+      </c>
+      <c r="D577">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E577">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B578" t="str">
+        <f t="shared" si="399"/>
+        <v>7-26-2020</v>
+      </c>
+      <c r="C578">
+        <f t="shared" si="402"/>
+        <v>26</v>
+      </c>
+      <c r="D578">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E578">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B579" t="str">
+        <f t="shared" si="399"/>
+        <v>7-27-2020</v>
+      </c>
+      <c r="C579">
+        <f t="shared" si="402"/>
+        <v>27</v>
+      </c>
+      <c r="D579">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E579">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B580" t="str">
+        <f t="shared" si="399"/>
+        <v>7-28-2020</v>
+      </c>
+      <c r="C580">
+        <f t="shared" si="402"/>
+        <v>28</v>
+      </c>
+      <c r="D580">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E580">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B581" t="str">
+        <f t="shared" si="399"/>
+        <v>7-29-2020</v>
+      </c>
+      <c r="C581">
+        <f t="shared" si="402"/>
+        <v>29</v>
+      </c>
+      <c r="D581">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E581">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B582" t="str">
+        <f t="shared" si="399"/>
+        <v>7-30-2020</v>
+      </c>
+      <c r="C582">
+        <f t="shared" si="402"/>
+        <v>30</v>
+      </c>
+      <c r="D582">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E582">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B583" t="str">
+        <f t="shared" si="399"/>
+        <v>7-31-2020</v>
+      </c>
+      <c r="C583">
+        <f t="shared" si="402"/>
+        <v>31</v>
+      </c>
+      <c r="D583">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="E583">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B584" t="str">
+        <f t="shared" si="399"/>
+        <v>8-1-2020</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>8</v>
+      </c>
+      <c r="E584">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B585" t="str">
+        <f t="shared" si="399"/>
+        <v>8-2-2020</v>
+      </c>
+      <c r="C585">
+        <f t="shared" si="402"/>
+        <v>2</v>
+      </c>
+      <c r="D585">
+        <f t="shared" ref="D585:E600" si="404">+D584</f>
+        <v>8</v>
+      </c>
+      <c r="E585">
+        <f t="shared" si="403"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B586" t="str">
+        <f t="shared" si="399"/>
+        <v>8-3-2020</v>
+      </c>
+      <c r="C586">
+        <f t="shared" si="402"/>
+        <v>3</v>
+      </c>
+      <c r="D586">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E586">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B587" t="str">
+        <f t="shared" si="399"/>
+        <v>8-4-2020</v>
+      </c>
+      <c r="C587">
+        <f t="shared" si="402"/>
+        <v>4</v>
+      </c>
+      <c r="D587">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E587">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B588" t="str">
+        <f t="shared" si="399"/>
+        <v>8-5-2020</v>
+      </c>
+      <c r="C588">
+        <f t="shared" si="402"/>
+        <v>5</v>
+      </c>
+      <c r="D588">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E588">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B589" t="str">
+        <f t="shared" si="399"/>
+        <v>8-6-2020</v>
+      </c>
+      <c r="C589">
+        <f t="shared" si="402"/>
+        <v>6</v>
+      </c>
+      <c r="D589">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E589">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B590" t="str">
+        <f t="shared" si="399"/>
+        <v>8-7-2020</v>
+      </c>
+      <c r="C590">
+        <f t="shared" si="402"/>
+        <v>7</v>
+      </c>
+      <c r="D590">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E590">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B591" t="str">
+        <f t="shared" si="399"/>
+        <v>8-8-2020</v>
+      </c>
+      <c r="C591">
+        <f t="shared" si="402"/>
+        <v>8</v>
+      </c>
+      <c r="D591">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E591">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B592" t="str">
+        <f t="shared" si="399"/>
+        <v>8-9-2020</v>
+      </c>
+      <c r="C592">
+        <f t="shared" si="402"/>
+        <v>9</v>
+      </c>
+      <c r="D592">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E592">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B593" t="str">
+        <f t="shared" si="399"/>
+        <v>8-10-2020</v>
+      </c>
+      <c r="C593">
+        <f t="shared" si="402"/>
+        <v>10</v>
+      </c>
+      <c r="D593">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E593">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B594" t="str">
+        <f t="shared" si="399"/>
+        <v>8-11-2020</v>
+      </c>
+      <c r="C594">
+        <f t="shared" si="402"/>
+        <v>11</v>
+      </c>
+      <c r="D594">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E594">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B595" t="str">
+        <f t="shared" si="399"/>
+        <v>8-12-2020</v>
+      </c>
+      <c r="C595">
+        <f t="shared" si="402"/>
+        <v>12</v>
+      </c>
+      <c r="D595">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E595">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B596" t="str">
+        <f t="shared" si="399"/>
+        <v>8-13-2020</v>
+      </c>
+      <c r="C596">
+        <f t="shared" si="402"/>
+        <v>13</v>
+      </c>
+      <c r="D596">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E596">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B597" t="str">
+        <f t="shared" si="399"/>
+        <v>8-14-2020</v>
+      </c>
+      <c r="C597">
+        <f t="shared" si="402"/>
+        <v>14</v>
+      </c>
+      <c r="D597">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E597">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B598" t="str">
+        <f t="shared" si="399"/>
+        <v>8-15-2020</v>
+      </c>
+      <c r="C598">
+        <f t="shared" si="402"/>
+        <v>15</v>
+      </c>
+      <c r="D598">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E598">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B599" t="str">
+        <f t="shared" si="399"/>
+        <v>8-16-2020</v>
+      </c>
+      <c r="C599">
+        <f t="shared" si="402"/>
+        <v>16</v>
+      </c>
+      <c r="D599">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E599">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B600" t="str">
+        <f t="shared" si="399"/>
+        <v>8-17-2020</v>
+      </c>
+      <c r="C600">
+        <f t="shared" si="402"/>
+        <v>17</v>
+      </c>
+      <c r="D600">
+        <f t="shared" si="404"/>
+        <v>8</v>
+      </c>
+      <c r="E600">
+        <f t="shared" si="404"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B601" t="str">
+        <f t="shared" si="399"/>
+        <v>8-18-2020</v>
+      </c>
+      <c r="C601">
+        <f t="shared" si="402"/>
+        <v>18</v>
+      </c>
+      <c r="D601">
+        <f t="shared" ref="D601:E616" si="405">+D600</f>
+        <v>8</v>
+      </c>
+      <c r="E601">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B602" t="str">
+        <f t="shared" ref="B602:B665" si="406">+D602&amp;"-"&amp;C602&amp;"-"&amp;E602</f>
+        <v>8-19-2020</v>
+      </c>
+      <c r="C602">
+        <f t="shared" si="402"/>
+        <v>19</v>
+      </c>
+      <c r="D602">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E602">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B603" t="str">
+        <f t="shared" si="406"/>
+        <v>8-20-2020</v>
+      </c>
+      <c r="C603">
+        <f t="shared" si="402"/>
+        <v>20</v>
+      </c>
+      <c r="D603">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E603">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B604" t="str">
+        <f t="shared" si="406"/>
+        <v>8-21-2020</v>
+      </c>
+      <c r="C604">
+        <f t="shared" si="402"/>
+        <v>21</v>
+      </c>
+      <c r="D604">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E604">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B605" t="str">
+        <f t="shared" si="406"/>
+        <v>8-22-2020</v>
+      </c>
+      <c r="C605">
+        <f t="shared" si="402"/>
+        <v>22</v>
+      </c>
+      <c r="D605">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E605">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B606" t="str">
+        <f t="shared" si="406"/>
+        <v>8-23-2020</v>
+      </c>
+      <c r="C606">
+        <f t="shared" si="402"/>
+        <v>23</v>
+      </c>
+      <c r="D606">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E606">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B607" t="str">
+        <f t="shared" si="406"/>
+        <v>8-24-2020</v>
+      </c>
+      <c r="C607">
+        <f t="shared" si="402"/>
+        <v>24</v>
+      </c>
+      <c r="D607">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E607">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B608" t="str">
+        <f t="shared" si="406"/>
+        <v>8-25-2020</v>
+      </c>
+      <c r="C608">
+        <f t="shared" si="402"/>
+        <v>25</v>
+      </c>
+      <c r="D608">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E608">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B609" t="str">
+        <f t="shared" si="406"/>
+        <v>8-26-2020</v>
+      </c>
+      <c r="C609">
+        <f t="shared" si="402"/>
+        <v>26</v>
+      </c>
+      <c r="D609">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E609">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B610" t="str">
+        <f t="shared" si="406"/>
+        <v>8-27-2020</v>
+      </c>
+      <c r="C610">
+        <f t="shared" si="402"/>
+        <v>27</v>
+      </c>
+      <c r="D610">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E610">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B611" t="str">
+        <f t="shared" si="406"/>
+        <v>8-28-2020</v>
+      </c>
+      <c r="C611">
+        <f t="shared" si="402"/>
+        <v>28</v>
+      </c>
+      <c r="D611">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E611">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B612" t="str">
+        <f t="shared" si="406"/>
+        <v>8-29-2020</v>
+      </c>
+      <c r="C612">
+        <f t="shared" si="402"/>
+        <v>29</v>
+      </c>
+      <c r="D612">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E612">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B613" t="str">
+        <f t="shared" si="406"/>
+        <v>8-30-2020</v>
+      </c>
+      <c r="C613">
+        <f t="shared" si="402"/>
+        <v>30</v>
+      </c>
+      <c r="D613">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E613">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B614" t="str">
+        <f t="shared" si="406"/>
+        <v>8-31-2020</v>
+      </c>
+      <c r="C614">
+        <f t="shared" si="402"/>
+        <v>31</v>
+      </c>
+      <c r="D614">
+        <f t="shared" si="405"/>
+        <v>8</v>
+      </c>
+      <c r="E614">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B615" t="str">
+        <f t="shared" si="406"/>
+        <v>9-1-2020</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615">
+        <v>9</v>
+      </c>
+      <c r="E615">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B616" t="str">
+        <f t="shared" si="406"/>
+        <v>9-2-2020</v>
+      </c>
+      <c r="C616">
+        <f t="shared" si="402"/>
+        <v>2</v>
+      </c>
+      <c r="D616">
+        <f t="shared" ref="D616:E631" si="407">+D615</f>
+        <v>9</v>
+      </c>
+      <c r="E616">
+        <f t="shared" si="405"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B617" t="str">
+        <f t="shared" si="406"/>
+        <v>9-3-2020</v>
+      </c>
+      <c r="C617">
+        <f t="shared" si="402"/>
+        <v>3</v>
+      </c>
+      <c r="D617">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E617">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B618" t="str">
+        <f t="shared" si="406"/>
+        <v>9-4-2020</v>
+      </c>
+      <c r="C618">
+        <f t="shared" si="402"/>
+        <v>4</v>
+      </c>
+      <c r="D618">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E618">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B619" t="str">
+        <f t="shared" si="406"/>
+        <v>9-5-2020</v>
+      </c>
+      <c r="C619">
+        <f t="shared" si="402"/>
+        <v>5</v>
+      </c>
+      <c r="D619">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E619">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B620" t="str">
+        <f t="shared" si="406"/>
+        <v>9-6-2020</v>
+      </c>
+      <c r="C620">
+        <f t="shared" si="402"/>
+        <v>6</v>
+      </c>
+      <c r="D620">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E620">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B621" t="str">
+        <f t="shared" si="406"/>
+        <v>9-7-2020</v>
+      </c>
+      <c r="C621">
+        <f t="shared" si="402"/>
+        <v>7</v>
+      </c>
+      <c r="D621">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E621">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B622" t="str">
+        <f t="shared" si="406"/>
+        <v>9-8-2020</v>
+      </c>
+      <c r="C622">
+        <f t="shared" si="402"/>
+        <v>8</v>
+      </c>
+      <c r="D622">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E622">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B623" t="str">
+        <f t="shared" si="406"/>
+        <v>9-9-2020</v>
+      </c>
+      <c r="C623">
+        <f t="shared" si="402"/>
+        <v>9</v>
+      </c>
+      <c r="D623">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E623">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B624" t="str">
+        <f t="shared" si="406"/>
+        <v>9-10-2020</v>
+      </c>
+      <c r="C624">
+        <f t="shared" si="402"/>
+        <v>10</v>
+      </c>
+      <c r="D624">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E624">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B625" t="str">
+        <f t="shared" si="406"/>
+        <v>9-11-2020</v>
+      </c>
+      <c r="C625">
+        <f t="shared" si="402"/>
+        <v>11</v>
+      </c>
+      <c r="D625">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E625">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B626" t="str">
+        <f t="shared" si="406"/>
+        <v>9-12-2020</v>
+      </c>
+      <c r="C626">
+        <f t="shared" si="402"/>
+        <v>12</v>
+      </c>
+      <c r="D626">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E626">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B627" t="str">
+        <f t="shared" si="406"/>
+        <v>9-13-2020</v>
+      </c>
+      <c r="C627">
+        <f t="shared" si="402"/>
+        <v>13</v>
+      </c>
+      <c r="D627">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E627">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B628" t="str">
+        <f t="shared" si="406"/>
+        <v>9-14-2020</v>
+      </c>
+      <c r="C628">
+        <f t="shared" si="402"/>
+        <v>14</v>
+      </c>
+      <c r="D628">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E628">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B629" t="str">
+        <f t="shared" si="406"/>
+        <v>9-15-2020</v>
+      </c>
+      <c r="C629">
+        <f t="shared" si="402"/>
+        <v>15</v>
+      </c>
+      <c r="D629">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E629">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B630" t="str">
+        <f t="shared" si="406"/>
+        <v>9-16-2020</v>
+      </c>
+      <c r="C630">
+        <f t="shared" ref="C630:C693" si="408">+C629+1</f>
+        <v>16</v>
+      </c>
+      <c r="D630">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E630">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B631" t="str">
+        <f t="shared" si="406"/>
+        <v>9-17-2020</v>
+      </c>
+      <c r="C631">
+        <f t="shared" si="408"/>
+        <v>17</v>
+      </c>
+      <c r="D631">
+        <f t="shared" si="407"/>
+        <v>9</v>
+      </c>
+      <c r="E631">
+        <f t="shared" si="407"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B632" t="str">
+        <f t="shared" si="406"/>
+        <v>9-18-2020</v>
+      </c>
+      <c r="C632">
+        <f t="shared" si="408"/>
+        <v>18</v>
+      </c>
+      <c r="D632">
+        <f t="shared" ref="D632:E647" si="409">+D631</f>
+        <v>9</v>
+      </c>
+      <c r="E632">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B633" t="str">
+        <f t="shared" si="406"/>
+        <v>9-19-2020</v>
+      </c>
+      <c r="C633">
+        <f t="shared" si="408"/>
+        <v>19</v>
+      </c>
+      <c r="D633">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E633">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B634" t="str">
+        <f t="shared" si="406"/>
+        <v>9-20-2020</v>
+      </c>
+      <c r="C634">
+        <f t="shared" si="408"/>
+        <v>20</v>
+      </c>
+      <c r="D634">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E634">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B635" t="str">
+        <f t="shared" si="406"/>
+        <v>9-21-2020</v>
+      </c>
+      <c r="C635">
+        <f t="shared" si="408"/>
+        <v>21</v>
+      </c>
+      <c r="D635">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E635">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B636" t="str">
+        <f t="shared" si="406"/>
+        <v>9-22-2020</v>
+      </c>
+      <c r="C636">
+        <f t="shared" si="408"/>
+        <v>22</v>
+      </c>
+      <c r="D636">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E636">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B637" t="str">
+        <f t="shared" si="406"/>
+        <v>9-23-2020</v>
+      </c>
+      <c r="C637">
+        <f t="shared" si="408"/>
+        <v>23</v>
+      </c>
+      <c r="D637">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E637">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B638" t="str">
+        <f t="shared" si="406"/>
+        <v>9-24-2020</v>
+      </c>
+      <c r="C638">
+        <f t="shared" si="408"/>
+        <v>24</v>
+      </c>
+      <c r="D638">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E638">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B639" t="str">
+        <f t="shared" si="406"/>
+        <v>9-25-2020</v>
+      </c>
+      <c r="C639">
+        <f t="shared" si="408"/>
+        <v>25</v>
+      </c>
+      <c r="D639">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E639">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B640" t="str">
+        <f t="shared" si="406"/>
+        <v>9-26-2020</v>
+      </c>
+      <c r="C640">
+        <f t="shared" si="408"/>
+        <v>26</v>
+      </c>
+      <c r="D640">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E640">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B641" t="str">
+        <f t="shared" si="406"/>
+        <v>9-27-2020</v>
+      </c>
+      <c r="C641">
+        <f t="shared" si="408"/>
+        <v>27</v>
+      </c>
+      <c r="D641">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E641">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B642" t="str">
+        <f t="shared" si="406"/>
+        <v>9-28-2020</v>
+      </c>
+      <c r="C642">
+        <f t="shared" si="408"/>
+        <v>28</v>
+      </c>
+      <c r="D642">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E642">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B643" t="str">
+        <f t="shared" si="406"/>
+        <v>9-29-2020</v>
+      </c>
+      <c r="C643">
+        <f t="shared" si="408"/>
+        <v>29</v>
+      </c>
+      <c r="D643">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E643">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B644" t="str">
+        <f t="shared" si="406"/>
+        <v>9-30-2020</v>
+      </c>
+      <c r="C644">
+        <f t="shared" si="408"/>
+        <v>30</v>
+      </c>
+      <c r="D644">
+        <f t="shared" si="409"/>
+        <v>9</v>
+      </c>
+      <c r="E644">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B645" t="str">
+        <f t="shared" si="406"/>
+        <v>10-1-2020</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645">
+        <v>10</v>
+      </c>
+      <c r="E645">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B646" t="str">
+        <f t="shared" si="406"/>
+        <v>10-2-2020</v>
+      </c>
+      <c r="C646">
+        <f t="shared" si="408"/>
+        <v>2</v>
+      </c>
+      <c r="D646">
+        <f t="shared" ref="D646:E661" si="410">+D645</f>
+        <v>10</v>
+      </c>
+      <c r="E646">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B647" t="str">
+        <f t="shared" si="406"/>
+        <v>10-3-2020</v>
+      </c>
+      <c r="C647">
+        <f t="shared" si="408"/>
+        <v>3</v>
+      </c>
+      <c r="D647">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E647">
+        <f t="shared" si="409"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B648" t="str">
+        <f t="shared" si="406"/>
+        <v>10-4-2020</v>
+      </c>
+      <c r="C648">
+        <f t="shared" si="408"/>
+        <v>4</v>
+      </c>
+      <c r="D648">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E648">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A649" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B649" t="str">
+        <f t="shared" si="406"/>
+        <v>10-5-2020</v>
+      </c>
+      <c r="C649">
+        <f t="shared" si="408"/>
+        <v>5</v>
+      </c>
+      <c r="D649">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E649">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A650" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B650" t="str">
+        <f t="shared" si="406"/>
+        <v>10-6-2020</v>
+      </c>
+      <c r="C650">
+        <f t="shared" si="408"/>
+        <v>6</v>
+      </c>
+      <c r="D650">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E650">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B651" t="str">
+        <f t="shared" si="406"/>
+        <v>10-7-2020</v>
+      </c>
+      <c r="C651">
+        <f t="shared" si="408"/>
+        <v>7</v>
+      </c>
+      <c r="D651">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E651">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B652" t="str">
+        <f t="shared" si="406"/>
+        <v>10-8-2020</v>
+      </c>
+      <c r="C652">
+        <f t="shared" si="408"/>
+        <v>8</v>
+      </c>
+      <c r="D652">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E652">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B653" t="str">
+        <f t="shared" si="406"/>
+        <v>10-9-2020</v>
+      </c>
+      <c r="C653">
+        <f t="shared" si="408"/>
+        <v>9</v>
+      </c>
+      <c r="D653">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E653">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B654" t="str">
+        <f t="shared" si="406"/>
+        <v>10-10-2020</v>
+      </c>
+      <c r="C654">
+        <f t="shared" si="408"/>
+        <v>10</v>
+      </c>
+      <c r="D654">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E654">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B655" t="str">
+        <f t="shared" si="406"/>
+        <v>10-11-2020</v>
+      </c>
+      <c r="C655">
+        <f t="shared" si="408"/>
+        <v>11</v>
+      </c>
+      <c r="D655">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E655">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B656" t="str">
+        <f t="shared" si="406"/>
+        <v>10-12-2020</v>
+      </c>
+      <c r="C656">
+        <f t="shared" si="408"/>
+        <v>12</v>
+      </c>
+      <c r="D656">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E656">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A657" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B657" t="str">
+        <f t="shared" si="406"/>
+        <v>10-13-2020</v>
+      </c>
+      <c r="C657">
+        <f t="shared" si="408"/>
+        <v>13</v>
+      </c>
+      <c r="D657">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E657">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A658" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B658" t="str">
+        <f t="shared" si="406"/>
+        <v>10-14-2020</v>
+      </c>
+      <c r="C658">
+        <f t="shared" si="408"/>
+        <v>14</v>
+      </c>
+      <c r="D658">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E658">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A659" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B659" t="str">
+        <f t="shared" si="406"/>
+        <v>10-15-2020</v>
+      </c>
+      <c r="C659">
+        <f t="shared" si="408"/>
+        <v>15</v>
+      </c>
+      <c r="D659">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E659">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A660" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B660" t="str">
+        <f t="shared" si="406"/>
+        <v>10-16-2020</v>
+      </c>
+      <c r="C660">
+        <f t="shared" si="408"/>
+        <v>16</v>
+      </c>
+      <c r="D660">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E660">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A661" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B661" t="str">
+        <f t="shared" si="406"/>
+        <v>10-17-2020</v>
+      </c>
+      <c r="C661">
+        <f t="shared" si="408"/>
+        <v>17</v>
+      </c>
+      <c r="D661">
+        <f t="shared" si="410"/>
+        <v>10</v>
+      </c>
+      <c r="E661">
+        <f t="shared" si="410"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A662" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B662" t="str">
+        <f t="shared" si="406"/>
+        <v>10-18-2020</v>
+      </c>
+      <c r="C662">
+        <f t="shared" si="408"/>
+        <v>18</v>
+      </c>
+      <c r="D662">
+        <f t="shared" ref="D662:E677" si="411">+D661</f>
+        <v>10</v>
+      </c>
+      <c r="E662">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A663" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B663" t="str">
+        <f t="shared" si="406"/>
+        <v>10-19-2020</v>
+      </c>
+      <c r="C663">
+        <f t="shared" si="408"/>
+        <v>19</v>
+      </c>
+      <c r="D663">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E663">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A664" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B664" t="str">
+        <f t="shared" si="406"/>
+        <v>10-20-2020</v>
+      </c>
+      <c r="C664">
+        <f t="shared" si="408"/>
+        <v>20</v>
+      </c>
+      <c r="D664">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E664">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A665" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B665" t="str">
+        <f t="shared" si="406"/>
+        <v>10-21-2020</v>
+      </c>
+      <c r="C665">
+        <f t="shared" si="408"/>
+        <v>21</v>
+      </c>
+      <c r="D665">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E665">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A666" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B666" t="str">
+        <f t="shared" ref="B666:B729" si="412">+D666&amp;"-"&amp;C666&amp;"-"&amp;E666</f>
+        <v>10-22-2020</v>
+      </c>
+      <c r="C666">
+        <f t="shared" si="408"/>
+        <v>22</v>
+      </c>
+      <c r="D666">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E666">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A667" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B667" t="str">
+        <f t="shared" si="412"/>
+        <v>10-23-2020</v>
+      </c>
+      <c r="C667">
+        <f t="shared" si="408"/>
+        <v>23</v>
+      </c>
+      <c r="D667">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E667">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A668" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B668" t="str">
+        <f t="shared" si="412"/>
+        <v>10-24-2020</v>
+      </c>
+      <c r="C668">
+        <f t="shared" si="408"/>
+        <v>24</v>
+      </c>
+      <c r="D668">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E668">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A669" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B669" t="str">
+        <f t="shared" si="412"/>
+        <v>10-25-2020</v>
+      </c>
+      <c r="C669">
+        <f t="shared" si="408"/>
+        <v>25</v>
+      </c>
+      <c r="D669">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E669">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A670" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B670" t="str">
+        <f t="shared" si="412"/>
+        <v>10-26-2020</v>
+      </c>
+      <c r="C670">
+        <f t="shared" si="408"/>
+        <v>26</v>
+      </c>
+      <c r="D670">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E670">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A671" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B671" t="str">
+        <f t="shared" si="412"/>
+        <v>10-27-2020</v>
+      </c>
+      <c r="C671">
+        <f t="shared" si="408"/>
+        <v>27</v>
+      </c>
+      <c r="D671">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E671">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A672" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B672" t="str">
+        <f t="shared" si="412"/>
+        <v>10-28-2020</v>
+      </c>
+      <c r="C672">
+        <f t="shared" si="408"/>
+        <v>28</v>
+      </c>
+      <c r="D672">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E672">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A673" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B673" t="str">
+        <f t="shared" si="412"/>
+        <v>10-29-2020</v>
+      </c>
+      <c r="C673">
+        <f t="shared" si="408"/>
+        <v>29</v>
+      </c>
+      <c r="D673">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E673">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A674" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B674" t="str">
+        <f t="shared" si="412"/>
+        <v>10-30-2020</v>
+      </c>
+      <c r="C674">
+        <f t="shared" si="408"/>
+        <v>30</v>
+      </c>
+      <c r="D674">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E674">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A675" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B675" t="str">
+        <f t="shared" si="412"/>
+        <v>10-31-2020</v>
+      </c>
+      <c r="C675">
+        <f t="shared" si="408"/>
+        <v>31</v>
+      </c>
+      <c r="D675">
+        <f t="shared" si="411"/>
+        <v>10</v>
+      </c>
+      <c r="E675">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A676" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B676" t="str">
+        <f t="shared" si="412"/>
+        <v>11-1-2020</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+      <c r="D676">
+        <v>11</v>
+      </c>
+      <c r="E676">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B677" t="str">
+        <f t="shared" si="412"/>
+        <v>11-2-2020</v>
+      </c>
+      <c r="C677">
+        <f t="shared" si="408"/>
+        <v>2</v>
+      </c>
+      <c r="D677">
+        <f t="shared" ref="D677:E692" si="413">+D676</f>
+        <v>11</v>
+      </c>
+      <c r="E677">
+        <f t="shared" si="411"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B678" t="str">
+        <f t="shared" si="412"/>
+        <v>11-3-2020</v>
+      </c>
+      <c r="C678">
+        <f t="shared" si="408"/>
+        <v>3</v>
+      </c>
+      <c r="D678">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E678">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B679" t="str">
+        <f t="shared" si="412"/>
+        <v>11-4-2020</v>
+      </c>
+      <c r="C679">
+        <f t="shared" si="408"/>
+        <v>4</v>
+      </c>
+      <c r="D679">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E679">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B680" t="str">
+        <f t="shared" si="412"/>
+        <v>11-5-2020</v>
+      </c>
+      <c r="C680">
+        <f t="shared" si="408"/>
+        <v>5</v>
+      </c>
+      <c r="D680">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E680">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B681" t="str">
+        <f t="shared" si="412"/>
+        <v>11-6-2020</v>
+      </c>
+      <c r="C681">
+        <f t="shared" si="408"/>
+        <v>6</v>
+      </c>
+      <c r="D681">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E681">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A682" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B682" t="str">
+        <f t="shared" si="412"/>
+        <v>11-7-2020</v>
+      </c>
+      <c r="C682">
+        <f t="shared" si="408"/>
+        <v>7</v>
+      </c>
+      <c r="D682">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E682">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A683" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B683" t="str">
+        <f t="shared" si="412"/>
+        <v>11-8-2020</v>
+      </c>
+      <c r="C683">
+        <f t="shared" si="408"/>
+        <v>8</v>
+      </c>
+      <c r="D683">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E683">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A684" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B684" t="str">
+        <f t="shared" si="412"/>
+        <v>11-9-2020</v>
+      </c>
+      <c r="C684">
+        <f t="shared" si="408"/>
+        <v>9</v>
+      </c>
+      <c r="D684">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E684">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A685" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B685" t="str">
+        <f t="shared" si="412"/>
+        <v>11-10-2020</v>
+      </c>
+      <c r="C685">
+        <f t="shared" si="408"/>
+        <v>10</v>
+      </c>
+      <c r="D685">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E685">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A686" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B686" t="str">
+        <f t="shared" si="412"/>
+        <v>11-11-2020</v>
+      </c>
+      <c r="C686">
+        <f t="shared" si="408"/>
+        <v>11</v>
+      </c>
+      <c r="D686">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E686">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A687" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B687" t="str">
+        <f t="shared" si="412"/>
+        <v>11-12-2020</v>
+      </c>
+      <c r="C687">
+        <f t="shared" si="408"/>
+        <v>12</v>
+      </c>
+      <c r="D687">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E687">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A688" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B688" t="str">
+        <f t="shared" si="412"/>
+        <v>11-13-2020</v>
+      </c>
+      <c r="C688">
+        <f t="shared" si="408"/>
+        <v>13</v>
+      </c>
+      <c r="D688">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E688">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A689" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B689" t="str">
+        <f t="shared" si="412"/>
+        <v>11-14-2020</v>
+      </c>
+      <c r="C689">
+        <f t="shared" si="408"/>
+        <v>14</v>
+      </c>
+      <c r="D689">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E689">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A690" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B690" t="str">
+        <f t="shared" si="412"/>
+        <v>11-15-2020</v>
+      </c>
+      <c r="C690">
+        <f t="shared" si="408"/>
+        <v>15</v>
+      </c>
+      <c r="D690">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E690">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A691" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B691" t="str">
+        <f t="shared" si="412"/>
+        <v>11-16-2020</v>
+      </c>
+      <c r="C691">
+        <f t="shared" si="408"/>
+        <v>16</v>
+      </c>
+      <c r="D691">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E691">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A692" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B692" t="str">
+        <f t="shared" si="412"/>
+        <v>11-17-2020</v>
+      </c>
+      <c r="C692">
+        <f t="shared" si="408"/>
+        <v>17</v>
+      </c>
+      <c r="D692">
+        <f t="shared" si="413"/>
+        <v>11</v>
+      </c>
+      <c r="E692">
+        <f t="shared" si="413"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A693" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B693" t="str">
+        <f t="shared" si="412"/>
+        <v>11-18-2020</v>
+      </c>
+      <c r="C693">
+        <f t="shared" si="408"/>
+        <v>18</v>
+      </c>
+      <c r="D693">
+        <f t="shared" ref="D693:E708" si="414">+D692</f>
+        <v>11</v>
+      </c>
+      <c r="E693">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A694" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B694" t="str">
+        <f t="shared" si="412"/>
+        <v>11-19-2020</v>
+      </c>
+      <c r="C694">
+        <f t="shared" ref="C694:C731" si="415">+C693+1</f>
+        <v>19</v>
+      </c>
+      <c r="D694">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E694">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A695" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B695" t="str">
+        <f t="shared" si="412"/>
+        <v>11-20-2020</v>
+      </c>
+      <c r="C695">
+        <f t="shared" si="415"/>
+        <v>20</v>
+      </c>
+      <c r="D695">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E695">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A696" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B696" t="str">
+        <f t="shared" si="412"/>
+        <v>11-21-2020</v>
+      </c>
+      <c r="C696">
+        <f t="shared" si="415"/>
+        <v>21</v>
+      </c>
+      <c r="D696">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E696">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A697" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B697" t="str">
+        <f t="shared" si="412"/>
+        <v>11-22-2020</v>
+      </c>
+      <c r="C697">
+        <f t="shared" si="415"/>
+        <v>22</v>
+      </c>
+      <c r="D697">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E697">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A698" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B698" t="str">
+        <f t="shared" si="412"/>
+        <v>11-23-2020</v>
+      </c>
+      <c r="C698">
+        <f t="shared" si="415"/>
+        <v>23</v>
+      </c>
+      <c r="D698">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E698">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A699" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B699" t="str">
+        <f t="shared" si="412"/>
+        <v>11-24-2020</v>
+      </c>
+      <c r="C699">
+        <f t="shared" si="415"/>
+        <v>24</v>
+      </c>
+      <c r="D699">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E699">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A700" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B700" t="str">
+        <f t="shared" si="412"/>
+        <v>11-25-2020</v>
+      </c>
+      <c r="C700">
+        <f t="shared" si="415"/>
+        <v>25</v>
+      </c>
+      <c r="D700">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E700">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A701" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B701" t="str">
+        <f t="shared" si="412"/>
+        <v>11-26-2020</v>
+      </c>
+      <c r="C701">
+        <f t="shared" si="415"/>
+        <v>26</v>
+      </c>
+      <c r="D701">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E701">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A702" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B702" t="str">
+        <f t="shared" si="412"/>
+        <v>11-27-2020</v>
+      </c>
+      <c r="C702">
+        <f t="shared" si="415"/>
+        <v>27</v>
+      </c>
+      <c r="D702">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E702">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A703" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B703" t="str">
+        <f t="shared" si="412"/>
+        <v>11-28-2020</v>
+      </c>
+      <c r="C703">
+        <f t="shared" si="415"/>
+        <v>28</v>
+      </c>
+      <c r="D703">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E703">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A704" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B704" t="str">
+        <f t="shared" si="412"/>
+        <v>11-29-2020</v>
+      </c>
+      <c r="C704">
+        <f t="shared" si="415"/>
+        <v>29</v>
+      </c>
+      <c r="D704">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E704">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A705" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B705" t="str">
+        <f t="shared" si="412"/>
+        <v>11-30-2020</v>
+      </c>
+      <c r="C705">
+        <f t="shared" si="415"/>
+        <v>30</v>
+      </c>
+      <c r="D705">
+        <f t="shared" si="414"/>
+        <v>11</v>
+      </c>
+      <c r="E705">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A706" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B706" t="str">
+        <f t="shared" si="412"/>
+        <v>12-1-2020</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706">
+        <v>12</v>
+      </c>
+      <c r="E706">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A707" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B707" t="str">
+        <f t="shared" si="412"/>
+        <v>12-2-2020</v>
+      </c>
+      <c r="C707">
+        <f t="shared" si="415"/>
+        <v>2</v>
+      </c>
+      <c r="D707">
+        <f t="shared" ref="D707:E722" si="416">+D706</f>
+        <v>12</v>
+      </c>
+      <c r="E707">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A708" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B708" t="str">
+        <f t="shared" si="412"/>
+        <v>12-3-2020</v>
+      </c>
+      <c r="C708">
+        <f t="shared" si="415"/>
+        <v>3</v>
+      </c>
+      <c r="D708">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E708">
+        <f t="shared" si="414"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A709" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B709" t="str">
+        <f t="shared" si="412"/>
+        <v>12-4-2020</v>
+      </c>
+      <c r="C709">
+        <f t="shared" si="415"/>
+        <v>4</v>
+      </c>
+      <c r="D709">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E709">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A710" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B710" t="str">
+        <f t="shared" si="412"/>
+        <v>12-5-2020</v>
+      </c>
+      <c r="C710">
+        <f t="shared" si="415"/>
+        <v>5</v>
+      </c>
+      <c r="D710">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E710">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A711" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B711" t="str">
+        <f t="shared" si="412"/>
+        <v>12-6-2020</v>
+      </c>
+      <c r="C711">
+        <f t="shared" si="415"/>
+        <v>6</v>
+      </c>
+      <c r="D711">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E711">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A712" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B712" t="str">
+        <f t="shared" si="412"/>
+        <v>12-7-2020</v>
+      </c>
+      <c r="C712">
+        <f t="shared" si="415"/>
+        <v>7</v>
+      </c>
+      <c r="D712">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E712">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A713" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B713" t="str">
+        <f t="shared" si="412"/>
+        <v>12-8-2020</v>
+      </c>
+      <c r="C713">
+        <f t="shared" si="415"/>
+        <v>8</v>
+      </c>
+      <c r="D713">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E713">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A714" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B714" t="str">
+        <f t="shared" si="412"/>
+        <v>12-9-2020</v>
+      </c>
+      <c r="C714">
+        <f t="shared" si="415"/>
+        <v>9</v>
+      </c>
+      <c r="D714">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E714">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A715" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B715" t="str">
+        <f t="shared" si="412"/>
+        <v>12-10-2020</v>
+      </c>
+      <c r="C715">
+        <f t="shared" si="415"/>
+        <v>10</v>
+      </c>
+      <c r="D715">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E715">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A716" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B716" t="str">
+        <f t="shared" si="412"/>
+        <v>12-11-2020</v>
+      </c>
+      <c r="C716">
+        <f t="shared" si="415"/>
+        <v>11</v>
+      </c>
+      <c r="D716">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E716">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A717" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B717" t="str">
+        <f t="shared" si="412"/>
+        <v>12-12-2020</v>
+      </c>
+      <c r="C717">
+        <f t="shared" si="415"/>
+        <v>12</v>
+      </c>
+      <c r="D717">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E717">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A718" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B718" t="str">
+        <f t="shared" si="412"/>
+        <v>12-13-2020</v>
+      </c>
+      <c r="C718">
+        <f t="shared" si="415"/>
+        <v>13</v>
+      </c>
+      <c r="D718">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E718">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A719" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B719" t="str">
+        <f t="shared" si="412"/>
+        <v>12-14-2020</v>
+      </c>
+      <c r="C719">
+        <f t="shared" si="415"/>
+        <v>14</v>
+      </c>
+      <c r="D719">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E719">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A720" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B720" t="str">
+        <f t="shared" si="412"/>
+        <v>12-15-2020</v>
+      </c>
+      <c r="C720">
+        <f t="shared" si="415"/>
+        <v>15</v>
+      </c>
+      <c r="D720">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E720">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A721" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B721" t="str">
+        <f t="shared" si="412"/>
+        <v>12-16-2020</v>
+      </c>
+      <c r="C721">
+        <f t="shared" si="415"/>
+        <v>16</v>
+      </c>
+      <c r="D721">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E721">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A722" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B722" t="str">
+        <f t="shared" si="412"/>
+        <v>12-17-2020</v>
+      </c>
+      <c r="C722">
+        <f t="shared" si="415"/>
+        <v>17</v>
+      </c>
+      <c r="D722">
+        <f t="shared" si="416"/>
+        <v>12</v>
+      </c>
+      <c r="E722">
+        <f t="shared" si="416"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A723" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B723" t="str">
+        <f t="shared" si="412"/>
+        <v>12-18-2020</v>
+      </c>
+      <c r="C723">
+        <f t="shared" si="415"/>
+        <v>18</v>
+      </c>
+      <c r="D723">
+        <f t="shared" ref="D723:E731" si="417">+D722</f>
+        <v>12</v>
+      </c>
+      <c r="E723">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A724" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B724" t="str">
+        <f t="shared" si="412"/>
+        <v>12-19-2020</v>
+      </c>
+      <c r="C724">
+        <f t="shared" si="415"/>
+        <v>19</v>
+      </c>
+      <c r="D724">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E724">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A725" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B725" t="str">
+        <f t="shared" si="412"/>
+        <v>12-20-2020</v>
+      </c>
+      <c r="C725">
+        <f t="shared" si="415"/>
+        <v>20</v>
+      </c>
+      <c r="D725">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E725">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A726" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B726" t="str">
+        <f t="shared" si="412"/>
+        <v>12-21-2020</v>
+      </c>
+      <c r="C726">
+        <f t="shared" si="415"/>
+        <v>21</v>
+      </c>
+      <c r="D726">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E726">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A727" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B727" t="str">
+        <f t="shared" si="412"/>
+        <v>12-22-2020</v>
+      </c>
+      <c r="C727">
+        <f t="shared" si="415"/>
+        <v>22</v>
+      </c>
+      <c r="D727">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E727">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A728" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B728" t="str">
+        <f t="shared" si="412"/>
+        <v>12-23-2020</v>
+      </c>
+      <c r="C728">
+        <f t="shared" si="415"/>
+        <v>23</v>
+      </c>
+      <c r="D728">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E728">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A729" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B729" t="str">
+        <f t="shared" si="412"/>
+        <v>12-24-2020</v>
+      </c>
+      <c r="C729">
+        <f t="shared" si="415"/>
+        <v>24</v>
+      </c>
+      <c r="D729">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E729">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A730" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B730" t="str">
+        <f t="shared" ref="B730:B731" si="418">+D730&amp;"-"&amp;C730&amp;"-"&amp;E730</f>
+        <v>12-25-2020</v>
+      </c>
+      <c r="C730">
+        <f t="shared" si="415"/>
+        <v>25</v>
+      </c>
+      <c r="D730">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E730">
+        <f t="shared" si="417"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A731" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B731" t="str">
+        <f t="shared" si="418"/>
+        <v>12-26-2020</v>
+      </c>
+      <c r="C731">
+        <f t="shared" si="415"/>
+        <v>26</v>
+      </c>
+      <c r="D731">
+        <f t="shared" si="417"/>
+        <v>12</v>
+      </c>
+      <c r="E731">
+        <f t="shared" si="417"/>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
